--- a/sequences/16_retrieval_2.xlsx
+++ b/sequences/16_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1126,19 +1126,19 @@
     <t>other/old/uncued</t>
   </si>
   <si>
+    <t>same/old/uncued</t>
+  </si>
+  <si>
     <t>same/old/cued</t>
   </si>
   <si>
     <t>correct/old/uncued</t>
   </si>
   <si>
-    <t>same/old/uncued</t>
+    <t>correct/old/cued</t>
   </si>
   <si>
     <t>other/old/cued</t>
-  </si>
-  <si>
-    <t>correct/old/cued</t>
   </si>
   <si>
     <t>dog/dog165.jpg</t>
@@ -1863,7 +1863,7 @@
         <v>368</v>
       </c>
       <c r="I2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="J2" t="s">
         <v>369</v>
@@ -1872,13 +1872,13 @@
         <v>205</v>
       </c>
       <c r="L2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M2" t="s">
         <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1900,6 +1900,30 @@
       <c r="F3" t="s">
         <v>206</v>
       </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -1921,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
         <v>369</v>
@@ -1936,13 +1960,13 @@
         <v>207</v>
       </c>
       <c r="L4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="N4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1964,6 +1988,30 @@
       <c r="F5" t="s">
         <v>206</v>
       </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -1982,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="H6" t="s">
         <v>370</v>
@@ -2000,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="L6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M6" t="s">
         <v>444</v>
@@ -2029,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H7" t="s">
         <v>369</v>
@@ -2038,7 +2086,7 @@
         <v>209</v>
       </c>
       <c r="J7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K7" t="s">
         <v>408</v>
@@ -2050,7 +2098,7 @@
         <v>306</v>
       </c>
       <c r="N7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2082,19 +2130,19 @@
         <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K8" t="s">
         <v>219</v>
       </c>
       <c r="L8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M8" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="N8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2117,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="H9" t="s">
         <v>369</v>
@@ -2132,13 +2180,13 @@
         <v>211</v>
       </c>
       <c r="L9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2161,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I10" t="s">
         <v>377</v>
@@ -2176,13 +2224,13 @@
         <v>212</v>
       </c>
       <c r="L10" t="s">
+        <v>373</v>
+      </c>
+      <c r="M10" t="s">
+        <v>252</v>
+      </c>
+      <c r="N10" t="s">
         <v>374</v>
-      </c>
-      <c r="M10" t="s">
-        <v>236</v>
-      </c>
-      <c r="N10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2204,6 +2252,30 @@
       <c r="F11" t="s">
         <v>206</v>
       </c>
+      <c r="G11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -2228,13 +2300,13 @@
         <v>213</v>
       </c>
       <c r="H12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I12" t="s">
         <v>243</v>
       </c>
       <c r="J12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K12" t="s">
         <v>409</v>
@@ -2268,6 +2340,30 @@
       <c r="F13" t="s">
         <v>206</v>
       </c>
+      <c r="G13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2292,19 +2388,19 @@
         <v>214</v>
       </c>
       <c r="H14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I14" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="J14" t="s">
         <v>369</v>
       </c>
       <c r="K14" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="L14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M14" t="s">
         <v>445</v>
@@ -2330,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>215</v>
       </c>
       <c r="H15" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I15" t="s">
         <v>378</v>
@@ -2345,10 +2441,10 @@
         <v>368</v>
       </c>
       <c r="K15" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
       <c r="L15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M15" t="s">
         <v>308</v>
@@ -2374,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="H16" t="s">
         <v>370</v>
@@ -2389,16 +2485,16 @@
         <v>368</v>
       </c>
       <c r="K16" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="L16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M16" t="s">
         <v>216</v>
       </c>
       <c r="N16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2420,6 +2516,30 @@
       <c r="F17" t="s">
         <v>206</v>
       </c>
+      <c r="G17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2447,7 +2567,7 @@
         <v>368</v>
       </c>
       <c r="I18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J18" t="s">
         <v>369</v>
@@ -2456,13 +2576,13 @@
         <v>324</v>
       </c>
       <c r="L18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M18" t="s">
         <v>217</v>
       </c>
       <c r="N18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2484,6 +2604,30 @@
       <c r="F19" t="s">
         <v>206</v>
       </c>
+      <c r="G19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2504,6 +2648,30 @@
       <c r="F20" t="s">
         <v>206</v>
       </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2525,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I21" t="s">
         <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K21" t="s">
         <v>410</v>
@@ -2543,7 +2711,7 @@
         <v>368</v>
       </c>
       <c r="M21" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="N21" t="s">
         <v>369</v>
@@ -2578,16 +2746,16 @@
         <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K22" t="s">
         <v>283</v>
       </c>
       <c r="L22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M22" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="N22" t="s">
         <v>369</v>
@@ -2616,13 +2784,13 @@
         <v>314</v>
       </c>
       <c r="H23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I23" t="s">
         <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K23" t="s">
         <v>411</v>
@@ -2631,7 +2799,7 @@
         <v>368</v>
       </c>
       <c r="M23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s">
         <v>369</v>
@@ -2654,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I24" t="s">
         <v>292</v>
@@ -2675,10 +2843,10 @@
         <v>368</v>
       </c>
       <c r="M24" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="N24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2701,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I25" t="s">
         <v>380</v>
@@ -2716,10 +2884,10 @@
         <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M25" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s">
         <v>369</v>
@@ -2748,10 +2916,10 @@
         <v>219</v>
       </c>
       <c r="H26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="J26" t="s">
         <v>369</v>
@@ -2760,7 +2928,7 @@
         <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M26" t="s">
         <v>446</v>
@@ -2788,6 +2956,30 @@
       <c r="F27" t="s">
         <v>206</v>
       </c>
+      <c r="G27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2812,13 +3004,13 @@
         <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I28" t="s">
         <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K28" t="s">
         <v>246</v>
@@ -2852,6 +3044,30 @@
       <c r="F29" t="s">
         <v>206</v>
       </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2873,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="H30" t="s">
         <v>369</v>
@@ -2882,7 +3098,7 @@
         <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K30" t="s">
         <v>413</v>
@@ -2894,7 +3110,7 @@
         <v>288</v>
       </c>
       <c r="N30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2914,13 +3130,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="H31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I31" t="s">
         <v>381</v>
@@ -2929,16 +3145,16 @@
         <v>368</v>
       </c>
       <c r="K31" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M31" t="s">
         <v>226</v>
       </c>
       <c r="N31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2958,19 +3174,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H32" t="s">
         <v>369</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
       <c r="J32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K32" t="s">
         <v>414</v>
@@ -2982,7 +3198,7 @@
         <v>227</v>
       </c>
       <c r="N32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3008,13 +3224,13 @@
         <v>303</v>
       </c>
       <c r="H33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I33" t="s">
         <v>228</v>
       </c>
       <c r="J33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K33" t="s">
         <v>415</v>
@@ -3023,7 +3239,7 @@
         <v>368</v>
       </c>
       <c r="M33" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s">
         <v>369</v>
@@ -3046,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="H34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I34" t="s">
         <v>382</v>
@@ -3064,10 +3280,10 @@
         <v>229</v>
       </c>
       <c r="L34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M34" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s">
         <v>370</v>
@@ -3090,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>230</v>
       </c>
       <c r="H35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I35" t="s">
         <v>383</v>
@@ -3111,10 +3327,10 @@
         <v>369</v>
       </c>
       <c r="M35" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="N35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3136,6 +3352,30 @@
       <c r="F36" t="s">
         <v>206</v>
       </c>
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" t="s">
+        <v>206</v>
+      </c>
+      <c r="M36" t="s">
+        <v>206</v>
+      </c>
+      <c r="N36" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3156,6 +3396,30 @@
       <c r="F37" t="s">
         <v>206</v>
       </c>
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" t="s">
+        <v>206</v>
+      </c>
+      <c r="J37" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M37" t="s">
+        <v>206</v>
+      </c>
+      <c r="N37" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3176,6 +3440,30 @@
       <c r="F38" t="s">
         <v>206</v>
       </c>
+      <c r="G38" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" t="s">
+        <v>206</v>
+      </c>
+      <c r="L38" t="s">
+        <v>206</v>
+      </c>
+      <c r="M38" t="s">
+        <v>206</v>
+      </c>
+      <c r="N38" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3196,6 +3484,30 @@
       <c r="F39" t="s">
         <v>206</v>
       </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3220,7 +3532,7 @@
         <v>314</v>
       </c>
       <c r="H40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I40" t="s">
         <v>384</v>
@@ -3229,7 +3541,7 @@
         <v>368</v>
       </c>
       <c r="K40" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s">
         <v>369</v>
@@ -3238,7 +3550,7 @@
         <v>231</v>
       </c>
       <c r="N40" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3258,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>342</v>
@@ -3267,22 +3579,22 @@
         <v>368</v>
       </c>
       <c r="I41" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="J41" t="s">
         <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M41" t="s">
         <v>232</v>
       </c>
       <c r="N41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3314,19 +3626,19 @@
         <v>233</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
         <v>369</v>
       </c>
       <c r="M42" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="N42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3352,7 +3664,7 @@
         <v>318</v>
       </c>
       <c r="H43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I43" t="s">
         <v>385</v>
@@ -3370,7 +3682,7 @@
         <v>234</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3393,16 +3705,16 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="H44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I44" t="s">
         <v>292</v>
       </c>
       <c r="J44" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
         <v>416</v>
@@ -3414,7 +3726,7 @@
         <v>235</v>
       </c>
       <c r="N44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3436,6 +3748,30 @@
       <c r="F45" t="s">
         <v>206</v>
       </c>
+      <c r="G45" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L45" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" t="s">
+        <v>206</v>
+      </c>
+      <c r="N45" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3463,13 +3799,13 @@
         <v>368</v>
       </c>
       <c r="I46" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s">
         <v>369</v>
@@ -3478,7 +3814,7 @@
         <v>236</v>
       </c>
       <c r="N46" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3498,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
         <v>237</v>
       </c>
       <c r="H47" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I47" t="s">
         <v>386</v>
@@ -3513,16 +3849,16 @@
         <v>368</v>
       </c>
       <c r="K47" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s">
         <v>287</v>
       </c>
       <c r="N47" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3542,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I48" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J48" t="s">
         <v>369</v>
@@ -3560,7 +3896,7 @@
         <v>276</v>
       </c>
       <c r="L48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s">
         <v>448</v>
@@ -3595,7 +3931,7 @@
         <v>368</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="J49" t="s">
         <v>369</v>
@@ -3604,13 +3940,13 @@
         <v>239</v>
       </c>
       <c r="L49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="N49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3632,6 +3968,30 @@
       <c r="F50" t="s">
         <v>206</v>
       </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" t="s">
+        <v>206</v>
+      </c>
+      <c r="K50" t="s">
+        <v>206</v>
+      </c>
+      <c r="L50" t="s">
+        <v>206</v>
+      </c>
+      <c r="M50" t="s">
+        <v>206</v>
+      </c>
+      <c r="N50" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3650,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>301</v>
       </c>
       <c r="H51" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I51" t="s">
         <v>387</v>
@@ -3665,16 +4025,16 @@
         <v>368</v>
       </c>
       <c r="K51" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="L51" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s">
         <v>240</v>
       </c>
       <c r="N51" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3694,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
         <v>346</v>
@@ -3706,19 +4066,19 @@
         <v>241</v>
       </c>
       <c r="J52" t="s">
+        <v>373</v>
+      </c>
+      <c r="K52" t="s">
+        <v>285</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+      <c r="M52" t="s">
+        <v>266</v>
+      </c>
+      <c r="N52" t="s">
         <v>371</v>
-      </c>
-      <c r="K52" t="s">
-        <v>286</v>
-      </c>
-      <c r="L52" t="s">
-        <v>369</v>
-      </c>
-      <c r="M52" t="s">
-        <v>316</v>
-      </c>
-      <c r="N52" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3741,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I53" t="s">
         <v>242</v>
       </c>
       <c r="J53" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="L53" t="s">
         <v>369</v>
@@ -3788,7 +4148,7 @@
         <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I54" t="s">
         <v>388</v>
@@ -3797,16 +4157,16 @@
         <v>368</v>
       </c>
       <c r="K54" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="L54" t="s">
         <v>369</v>
       </c>
       <c r="M54" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="N54" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3826,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I55" t="s">
         <v>389</v>
@@ -3844,13 +4204,13 @@
         <v>244</v>
       </c>
       <c r="L55" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s">
         <v>245</v>
       </c>
       <c r="N55" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3876,7 +4236,7 @@
         <v>245</v>
       </c>
       <c r="H56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I56" t="s">
         <v>312</v>
@@ -3894,7 +4254,7 @@
         <v>217</v>
       </c>
       <c r="N56" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3916,6 +4276,30 @@
       <c r="F57" t="s">
         <v>206</v>
       </c>
+      <c r="G57" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" t="s">
+        <v>206</v>
+      </c>
+      <c r="J57" t="s">
+        <v>206</v>
+      </c>
+      <c r="K57" t="s">
+        <v>206</v>
+      </c>
+      <c r="L57" t="s">
+        <v>206</v>
+      </c>
+      <c r="M57" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -3937,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="H58" t="s">
         <v>369</v>
@@ -3946,7 +4330,7 @@
         <v>246</v>
       </c>
       <c r="J58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K58" t="s">
         <v>418</v>
@@ -3958,7 +4342,7 @@
         <v>265</v>
       </c>
       <c r="N58" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3980,6 +4364,30 @@
       <c r="F59" t="s">
         <v>206</v>
       </c>
+      <c r="G59" t="s">
+        <v>206</v>
+      </c>
+      <c r="H59" t="s">
+        <v>206</v>
+      </c>
+      <c r="I59" t="s">
+        <v>206</v>
+      </c>
+      <c r="J59" t="s">
+        <v>206</v>
+      </c>
+      <c r="K59" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59" t="s">
+        <v>206</v>
+      </c>
+      <c r="M59" t="s">
+        <v>206</v>
+      </c>
+      <c r="N59" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -3998,19 +4406,19 @@
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>247</v>
       </c>
       <c r="H60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I60" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="J60" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K60" t="s">
         <v>419</v>
@@ -4019,10 +4427,10 @@
         <v>368</v>
       </c>
       <c r="M60" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="N60" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4044,6 +4452,30 @@
       <c r="F61" t="s">
         <v>206</v>
       </c>
+      <c r="G61" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J61" t="s">
+        <v>206</v>
+      </c>
+      <c r="K61" t="s">
+        <v>206</v>
+      </c>
+      <c r="L61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M61" t="s">
+        <v>206</v>
+      </c>
+      <c r="N61" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4064,6 +4496,30 @@
       <c r="F62" t="s">
         <v>206</v>
       </c>
+      <c r="G62" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" t="s">
+        <v>206</v>
+      </c>
+      <c r="J62" t="s">
+        <v>206</v>
+      </c>
+      <c r="K62" t="s">
+        <v>206</v>
+      </c>
+      <c r="L62" t="s">
+        <v>206</v>
+      </c>
+      <c r="M62" t="s">
+        <v>206</v>
+      </c>
+      <c r="N62" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4082,25 +4538,25 @@
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="s">
         <v>248</v>
       </c>
       <c r="H63" t="s">
+        <v>373</v>
+      </c>
+      <c r="I63" t="s">
+        <v>237</v>
+      </c>
+      <c r="J63" t="s">
+        <v>369</v>
+      </c>
+      <c r="K63" t="s">
+        <v>234</v>
+      </c>
+      <c r="L63" t="s">
         <v>371</v>
-      </c>
-      <c r="I63" t="s">
-        <v>331</v>
-      </c>
-      <c r="J63" t="s">
-        <v>369</v>
-      </c>
-      <c r="K63" t="s">
-        <v>230</v>
-      </c>
-      <c r="L63" t="s">
-        <v>372</v>
       </c>
       <c r="M63" t="s">
         <v>450</v>
@@ -4128,6 +4584,30 @@
       <c r="F64" t="s">
         <v>206</v>
       </c>
+      <c r="G64" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L64" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" t="s">
+        <v>206</v>
+      </c>
+      <c r="N64" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4148,6 +4628,30 @@
       <c r="F65" t="s">
         <v>206</v>
       </c>
+      <c r="G65" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" t="s">
+        <v>206</v>
+      </c>
+      <c r="K65" t="s">
+        <v>206</v>
+      </c>
+      <c r="L65" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65" t="s">
+        <v>206</v>
+      </c>
+      <c r="N65" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4172,7 +4676,7 @@
         <v>277</v>
       </c>
       <c r="H66" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I66" t="s">
         <v>390</v>
@@ -4181,7 +4685,7 @@
         <v>368</v>
       </c>
       <c r="K66" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s">
         <v>369</v>
@@ -4190,7 +4694,7 @@
         <v>249</v>
       </c>
       <c r="N66" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4210,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="H67" t="s">
         <v>369</v>
@@ -4222,10 +4726,10 @@
         <v>250</v>
       </c>
       <c r="J67" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K67" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="L67" t="s">
         <v>370</v>
@@ -4256,6 +4760,30 @@
       <c r="F68" t="s">
         <v>206</v>
       </c>
+      <c r="G68" t="s">
+        <v>206</v>
+      </c>
+      <c r="H68" t="s">
+        <v>206</v>
+      </c>
+      <c r="I68" t="s">
+        <v>206</v>
+      </c>
+      <c r="J68" t="s">
+        <v>206</v>
+      </c>
+      <c r="K68" t="s">
+        <v>206</v>
+      </c>
+      <c r="L68" t="s">
+        <v>206</v>
+      </c>
+      <c r="M68" t="s">
+        <v>206</v>
+      </c>
+      <c r="N68" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4276,6 +4804,30 @@
       <c r="F69" t="s">
         <v>206</v>
       </c>
+      <c r="G69" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" t="s">
+        <v>206</v>
+      </c>
+      <c r="J69" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" t="s">
+        <v>206</v>
+      </c>
+      <c r="L69" t="s">
+        <v>206</v>
+      </c>
+      <c r="M69" t="s">
+        <v>206</v>
+      </c>
+      <c r="N69" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4300,13 +4852,13 @@
         <v>283</v>
       </c>
       <c r="H70" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I70" t="s">
         <v>251</v>
       </c>
       <c r="J70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K70" t="s">
         <v>420</v>
@@ -4350,10 +4902,10 @@
         <v>252</v>
       </c>
       <c r="J71" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K71" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="L71" t="s">
         <v>369</v>
@@ -4362,7 +4914,7 @@
         <v>236</v>
       </c>
       <c r="N71" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4382,25 +4934,25 @@
         <v>0</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
         <v>253</v>
       </c>
       <c r="H72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I72" t="s">
         <v>259</v>
       </c>
       <c r="J72" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K72" t="s">
         <v>290</v>
       </c>
       <c r="L72" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M72" t="s">
         <v>452</v>
@@ -4428,6 +4980,30 @@
       <c r="F73" t="s">
         <v>206</v>
       </c>
+      <c r="G73" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J73" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" t="s">
+        <v>206</v>
+      </c>
+      <c r="L73" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" t="s">
+        <v>206</v>
+      </c>
+      <c r="N73" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4446,25 +5022,25 @@
         <v>0</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I74" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="J74" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K74" t="s">
         <v>254</v>
       </c>
       <c r="L74" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M74" t="s">
         <v>453</v>
@@ -4492,6 +5068,30 @@
       <c r="F75" t="s">
         <v>206</v>
       </c>
+      <c r="G75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" t="s">
+        <v>206</v>
+      </c>
+      <c r="I75" t="s">
+        <v>206</v>
+      </c>
+      <c r="J75" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75" t="s">
+        <v>206</v>
+      </c>
+      <c r="L75" t="s">
+        <v>206</v>
+      </c>
+      <c r="M75" t="s">
+        <v>206</v>
+      </c>
+      <c r="N75" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4522,16 +5122,16 @@
         <v>255</v>
       </c>
       <c r="J76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K76" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="L76" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M76" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="N76" t="s">
         <v>369</v>
@@ -4554,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>349</v>
@@ -4563,19 +5163,19 @@
         <v>368</v>
       </c>
       <c r="I77" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="J77" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K77" t="s">
         <v>256</v>
       </c>
       <c r="L77" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M77" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="N77" t="s">
         <v>370</v>
@@ -4598,19 +5198,19 @@
         <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I78" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="J78" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K78" t="s">
         <v>421</v>
@@ -4622,7 +5222,7 @@
         <v>257</v>
       </c>
       <c r="N78" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4644,6 +5244,30 @@
       <c r="F79" t="s">
         <v>206</v>
       </c>
+      <c r="G79" t="s">
+        <v>206</v>
+      </c>
+      <c r="H79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I79" t="s">
+        <v>206</v>
+      </c>
+      <c r="J79" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79" t="s">
+        <v>206</v>
+      </c>
+      <c r="L79" t="s">
+        <v>206</v>
+      </c>
+      <c r="M79" t="s">
+        <v>206</v>
+      </c>
+      <c r="N79" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4674,13 +5298,13 @@
         <v>240</v>
       </c>
       <c r="J80" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K80" t="s">
         <v>258</v>
       </c>
       <c r="L80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M80" t="s">
         <v>454</v>
@@ -4708,6 +5332,30 @@
       <c r="F81" t="s">
         <v>206</v>
       </c>
+      <c r="G81" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" t="s">
+        <v>206</v>
+      </c>
+      <c r="I81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J81" t="s">
+        <v>206</v>
+      </c>
+      <c r="K81" t="s">
+        <v>206</v>
+      </c>
+      <c r="L81" t="s">
+        <v>206</v>
+      </c>
+      <c r="M81" t="s">
+        <v>206</v>
+      </c>
+      <c r="N81" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4732,13 +5380,13 @@
         <v>259</v>
       </c>
       <c r="H82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I82" t="s">
         <v>321</v>
       </c>
       <c r="J82" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K82" t="s">
         <v>246</v>
@@ -4773,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="H83" t="s">
         <v>369</v>
@@ -4782,13 +5430,13 @@
         <v>260</v>
       </c>
       <c r="J83" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K83" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="L83" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M83" t="s">
         <v>456</v>
@@ -4823,7 +5471,7 @@
         <v>368</v>
       </c>
       <c r="I84" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="J84" t="s">
         <v>369</v>
@@ -4832,13 +5480,13 @@
         <v>312</v>
       </c>
       <c r="L84" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M84" t="s">
         <v>261</v>
       </c>
       <c r="N84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4860,6 +5508,30 @@
       <c r="F85" t="s">
         <v>206</v>
       </c>
+      <c r="G85" t="s">
+        <v>206</v>
+      </c>
+      <c r="H85" t="s">
+        <v>206</v>
+      </c>
+      <c r="I85" t="s">
+        <v>206</v>
+      </c>
+      <c r="J85" t="s">
+        <v>206</v>
+      </c>
+      <c r="K85" t="s">
+        <v>206</v>
+      </c>
+      <c r="L85" t="s">
+        <v>206</v>
+      </c>
+      <c r="M85" t="s">
+        <v>206</v>
+      </c>
+      <c r="N85" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4878,19 +5550,19 @@
         <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H86" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I86" t="s">
         <v>262</v>
       </c>
       <c r="J86" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K86" t="s">
         <v>422</v>
@@ -4899,7 +5571,7 @@
         <v>368</v>
       </c>
       <c r="M86" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="N86" t="s">
         <v>369</v>
@@ -4924,6 +5596,30 @@
       <c r="F87" t="s">
         <v>206</v>
       </c>
+      <c r="G87" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" t="s">
+        <v>206</v>
+      </c>
+      <c r="I87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J87" t="s">
+        <v>206</v>
+      </c>
+      <c r="K87" t="s">
+        <v>206</v>
+      </c>
+      <c r="L87" t="s">
+        <v>206</v>
+      </c>
+      <c r="M87" t="s">
+        <v>206</v>
+      </c>
+      <c r="N87" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -4942,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I88" t="s">
         <v>391</v>
@@ -4960,7 +5656,7 @@
         <v>263</v>
       </c>
       <c r="L88" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M88" t="s">
         <v>282</v>
@@ -4988,6 +5684,30 @@
       <c r="F89" t="s">
         <v>206</v>
       </c>
+      <c r="G89" t="s">
+        <v>206</v>
+      </c>
+      <c r="H89" t="s">
+        <v>206</v>
+      </c>
+      <c r="I89" t="s">
+        <v>206</v>
+      </c>
+      <c r="J89" t="s">
+        <v>206</v>
+      </c>
+      <c r="K89" t="s">
+        <v>206</v>
+      </c>
+      <c r="L89" t="s">
+        <v>206</v>
+      </c>
+      <c r="M89" t="s">
+        <v>206</v>
+      </c>
+      <c r="N89" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5006,19 +5726,19 @@
         <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
         <v>264</v>
       </c>
       <c r="H90" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I90" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="J90" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K90" t="s">
         <v>423</v>
@@ -5027,10 +5747,10 @@
         <v>368</v>
       </c>
       <c r="M90" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5052,6 +5772,30 @@
       <c r="F91" t="s">
         <v>206</v>
       </c>
+      <c r="G91" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" t="s">
+        <v>206</v>
+      </c>
+      <c r="N91" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5073,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="H92" t="s">
         <v>369</v>
@@ -5082,13 +5826,13 @@
         <v>295</v>
       </c>
       <c r="J92" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K92" t="s">
         <v>265</v>
       </c>
       <c r="L92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M92" t="s">
         <v>457</v>
@@ -5116,6 +5860,30 @@
       <c r="F93" t="s">
         <v>206</v>
       </c>
+      <c r="G93" t="s">
+        <v>206</v>
+      </c>
+      <c r="H93" t="s">
+        <v>206</v>
+      </c>
+      <c r="I93" t="s">
+        <v>206</v>
+      </c>
+      <c r="J93" t="s">
+        <v>206</v>
+      </c>
+      <c r="K93" t="s">
+        <v>206</v>
+      </c>
+      <c r="L93" t="s">
+        <v>206</v>
+      </c>
+      <c r="M93" t="s">
+        <v>206</v>
+      </c>
+      <c r="N93" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5136,6 +5904,30 @@
       <c r="F94" t="s">
         <v>206</v>
       </c>
+      <c r="G94" t="s">
+        <v>206</v>
+      </c>
+      <c r="H94" t="s">
+        <v>206</v>
+      </c>
+      <c r="I94" t="s">
+        <v>206</v>
+      </c>
+      <c r="J94" t="s">
+        <v>206</v>
+      </c>
+      <c r="K94" t="s">
+        <v>206</v>
+      </c>
+      <c r="L94" t="s">
+        <v>206</v>
+      </c>
+      <c r="M94" t="s">
+        <v>206</v>
+      </c>
+      <c r="N94" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5172,13 +5964,13 @@
         <v>266</v>
       </c>
       <c r="L95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M95" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="N95" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5210,10 +6002,10 @@
         <v>267</v>
       </c>
       <c r="J96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K96" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="L96" t="s">
         <v>370</v>
@@ -5245,16 +6037,16 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="H97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I97" t="s">
         <v>268</v>
       </c>
       <c r="J97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K97" t="s">
         <v>231</v>
@@ -5286,13 +6078,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I98" t="s">
         <v>393</v>
@@ -5304,10 +6096,10 @@
         <v>269</v>
       </c>
       <c r="L98" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N98" t="s">
         <v>369</v>
@@ -5332,6 +6124,30 @@
       <c r="F99" t="s">
         <v>206</v>
       </c>
+      <c r="G99" t="s">
+        <v>206</v>
+      </c>
+      <c r="H99" t="s">
+        <v>206</v>
+      </c>
+      <c r="I99" t="s">
+        <v>206</v>
+      </c>
+      <c r="J99" t="s">
+        <v>206</v>
+      </c>
+      <c r="K99" t="s">
+        <v>206</v>
+      </c>
+      <c r="L99" t="s">
+        <v>206</v>
+      </c>
+      <c r="M99" t="s">
+        <v>206</v>
+      </c>
+      <c r="N99" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5352,6 +6168,30 @@
       <c r="F100" t="s">
         <v>206</v>
       </c>
+      <c r="G100" t="s">
+        <v>206</v>
+      </c>
+      <c r="H100" t="s">
+        <v>206</v>
+      </c>
+      <c r="I100" t="s">
+        <v>206</v>
+      </c>
+      <c r="J100" t="s">
+        <v>206</v>
+      </c>
+      <c r="K100" t="s">
+        <v>206</v>
+      </c>
+      <c r="L100" t="s">
+        <v>206</v>
+      </c>
+      <c r="M100" t="s">
+        <v>206</v>
+      </c>
+      <c r="N100" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5376,7 +6216,7 @@
         <v>296</v>
       </c>
       <c r="H101" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I101" t="s">
         <v>211</v>
@@ -5394,7 +6234,7 @@
         <v>270</v>
       </c>
       <c r="N101" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5420,7 +6260,7 @@
         <v>271</v>
       </c>
       <c r="H102" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I102" t="s">
         <v>282</v>
@@ -5432,7 +6272,7 @@
         <v>217</v>
       </c>
       <c r="L102" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M102" t="s">
         <v>460</v>
@@ -5467,13 +6307,13 @@
         <v>368</v>
       </c>
       <c r="I103" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="J103" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K103" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="L103" t="s">
         <v>369</v>
@@ -5482,7 +6322,7 @@
         <v>272</v>
       </c>
       <c r="N103" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5505,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="H104" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I104" t="s">
         <v>394</v>
@@ -5517,7 +6357,7 @@
         <v>368</v>
       </c>
       <c r="K104" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="L104" t="s">
         <v>369</v>
@@ -5526,7 +6366,7 @@
         <v>273</v>
       </c>
       <c r="N104" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5548,6 +6388,30 @@
       <c r="F105" t="s">
         <v>206</v>
       </c>
+      <c r="G105" t="s">
+        <v>206</v>
+      </c>
+      <c r="H105" t="s">
+        <v>206</v>
+      </c>
+      <c r="I105" t="s">
+        <v>206</v>
+      </c>
+      <c r="J105" t="s">
+        <v>206</v>
+      </c>
+      <c r="K105" t="s">
+        <v>206</v>
+      </c>
+      <c r="L105" t="s">
+        <v>206</v>
+      </c>
+      <c r="M105" t="s">
+        <v>206</v>
+      </c>
+      <c r="N105" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5566,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="H106" t="s">
         <v>370</v>
@@ -5578,7 +6442,7 @@
         <v>274</v>
       </c>
       <c r="J106" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K106" t="s">
         <v>425</v>
@@ -5587,7 +6451,7 @@
         <v>368</v>
       </c>
       <c r="M106" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N106" t="s">
         <v>369</v>
@@ -5622,19 +6486,19 @@
         <v>332</v>
       </c>
       <c r="J107" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K107" t="s">
         <v>275</v>
       </c>
       <c r="L107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M107" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="N107" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5654,16 +6518,16 @@
         <v>0</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>276</v>
       </c>
       <c r="H108" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J108" t="s">
         <v>370</v>
@@ -5675,7 +6539,7 @@
         <v>368</v>
       </c>
       <c r="M108" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="N108" t="s">
         <v>369</v>
@@ -5710,7 +6574,7 @@
         <v>277</v>
       </c>
       <c r="J109" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K109" t="s">
         <v>427</v>
@@ -5722,7 +6586,7 @@
         <v>314</v>
       </c>
       <c r="N109" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5744,6 +6608,30 @@
       <c r="F110" t="s">
         <v>206</v>
       </c>
+      <c r="G110" t="s">
+        <v>206</v>
+      </c>
+      <c r="H110" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" t="s">
+        <v>206</v>
+      </c>
+      <c r="J110" t="s">
+        <v>206</v>
+      </c>
+      <c r="K110" t="s">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s">
+        <v>206</v>
+      </c>
+      <c r="M110" t="s">
+        <v>206</v>
+      </c>
+      <c r="N110" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5762,19 +6650,19 @@
         <v>0</v>
       </c>
       <c r="F111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H111" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I111" t="s">
         <v>278</v>
       </c>
       <c r="J111" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K111" t="s">
         <v>428</v>
@@ -5815,19 +6703,19 @@
         <v>368</v>
       </c>
       <c r="I112" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="J112" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K112" t="s">
         <v>279</v>
       </c>
       <c r="L112" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M112" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="N112" t="s">
         <v>369</v>
@@ -5852,6 +6740,30 @@
       <c r="F113" t="s">
         <v>206</v>
       </c>
+      <c r="G113" t="s">
+        <v>206</v>
+      </c>
+      <c r="H113" t="s">
+        <v>206</v>
+      </c>
+      <c r="I113" t="s">
+        <v>206</v>
+      </c>
+      <c r="J113" t="s">
+        <v>206</v>
+      </c>
+      <c r="K113" t="s">
+        <v>206</v>
+      </c>
+      <c r="L113" t="s">
+        <v>206</v>
+      </c>
+      <c r="M113" t="s">
+        <v>206</v>
+      </c>
+      <c r="N113" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5876,7 +6788,7 @@
         <v>269</v>
       </c>
       <c r="H114" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I114" t="s">
         <v>395</v>
@@ -5888,7 +6800,7 @@
         <v>280</v>
       </c>
       <c r="L114" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M114" t="s">
         <v>297</v>
@@ -5920,13 +6832,13 @@
         <v>281</v>
       </c>
       <c r="H115" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I115" t="s">
         <v>319</v>
       </c>
       <c r="J115" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K115" t="s">
         <v>429</v>
@@ -5935,7 +6847,7 @@
         <v>368</v>
       </c>
       <c r="M115" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="N115" t="s">
         <v>369</v>
@@ -5961,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="H116" t="s">
         <v>369</v>
@@ -5976,13 +6888,13 @@
         <v>282</v>
       </c>
       <c r="L116" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M116" t="s">
         <v>225</v>
       </c>
       <c r="N116" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6004,6 +6916,30 @@
       <c r="F117" t="s">
         <v>206</v>
       </c>
+      <c r="G117" t="s">
+        <v>206</v>
+      </c>
+      <c r="H117" t="s">
+        <v>206</v>
+      </c>
+      <c r="I117" t="s">
+        <v>206</v>
+      </c>
+      <c r="J117" t="s">
+        <v>206</v>
+      </c>
+      <c r="K117" t="s">
+        <v>206</v>
+      </c>
+      <c r="L117" t="s">
+        <v>206</v>
+      </c>
+      <c r="M117" t="s">
+        <v>206</v>
+      </c>
+      <c r="N117" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6028,10 +6964,10 @@
         <v>283</v>
       </c>
       <c r="H118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J118" t="s">
         <v>369</v>
@@ -6046,7 +6982,7 @@
         <v>243</v>
       </c>
       <c r="N118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6068,6 +7004,30 @@
       <c r="F119" t="s">
         <v>206</v>
       </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+      <c r="H119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>206</v>
+      </c>
+      <c r="J119" t="s">
+        <v>206</v>
+      </c>
+      <c r="K119" t="s">
+        <v>206</v>
+      </c>
+      <c r="L119" t="s">
+        <v>206</v>
+      </c>
+      <c r="M119" t="s">
+        <v>206</v>
+      </c>
+      <c r="N119" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6098,10 +7058,10 @@
         <v>246</v>
       </c>
       <c r="J120" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K120" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="L120" t="s">
         <v>369</v>
@@ -6110,7 +7070,7 @@
         <v>284</v>
       </c>
       <c r="N120" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6132,6 +7092,30 @@
       <c r="F121" t="s">
         <v>206</v>
       </c>
+      <c r="G121" t="s">
+        <v>206</v>
+      </c>
+      <c r="H121" t="s">
+        <v>206</v>
+      </c>
+      <c r="I121" t="s">
+        <v>206</v>
+      </c>
+      <c r="J121" t="s">
+        <v>206</v>
+      </c>
+      <c r="K121" t="s">
+        <v>206</v>
+      </c>
+      <c r="L121" t="s">
+        <v>206</v>
+      </c>
+      <c r="M121" t="s">
+        <v>206</v>
+      </c>
+      <c r="N121" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6153,19 +7137,19 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="H122" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I122" t="s">
         <v>285</v>
       </c>
       <c r="J122" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K122" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L122" t="s">
         <v>369</v>
@@ -6200,13 +7184,13 @@
         <v>297</v>
       </c>
       <c r="H123" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I123" t="s">
         <v>286</v>
       </c>
       <c r="J123" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K123" t="s">
         <v>207</v>
@@ -6244,16 +7228,16 @@
         <v>287</v>
       </c>
       <c r="H124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J124" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K124" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="L124" t="s">
         <v>369</v>
@@ -6284,6 +7268,30 @@
       <c r="F125" t="s">
         <v>206</v>
       </c>
+      <c r="G125" t="s">
+        <v>206</v>
+      </c>
+      <c r="H125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I125" t="s">
+        <v>206</v>
+      </c>
+      <c r="J125" t="s">
+        <v>206</v>
+      </c>
+      <c r="K125" t="s">
+        <v>206</v>
+      </c>
+      <c r="L125" t="s">
+        <v>206</v>
+      </c>
+      <c r="M125" t="s">
+        <v>206</v>
+      </c>
+      <c r="N125" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6305,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H126" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I126" t="s">
         <v>397</v>
@@ -6320,10 +7328,10 @@
         <v>288</v>
       </c>
       <c r="L126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M126" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="N126" t="s">
         <v>369</v>
@@ -6348,6 +7356,30 @@
       <c r="F127" t="s">
         <v>206</v>
       </c>
+      <c r="G127" t="s">
+        <v>206</v>
+      </c>
+      <c r="H127" t="s">
+        <v>206</v>
+      </c>
+      <c r="I127" t="s">
+        <v>206</v>
+      </c>
+      <c r="J127" t="s">
+        <v>206</v>
+      </c>
+      <c r="K127" t="s">
+        <v>206</v>
+      </c>
+      <c r="L127" t="s">
+        <v>206</v>
+      </c>
+      <c r="M127" t="s">
+        <v>206</v>
+      </c>
+      <c r="N127" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6368,6 +7400,30 @@
       <c r="F128" t="s">
         <v>206</v>
       </c>
+      <c r="G128" t="s">
+        <v>206</v>
+      </c>
+      <c r="H128" t="s">
+        <v>206</v>
+      </c>
+      <c r="I128" t="s">
+        <v>206</v>
+      </c>
+      <c r="J128" t="s">
+        <v>206</v>
+      </c>
+      <c r="K128" t="s">
+        <v>206</v>
+      </c>
+      <c r="L128" t="s">
+        <v>206</v>
+      </c>
+      <c r="M128" t="s">
+        <v>206</v>
+      </c>
+      <c r="N128" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6386,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
         <v>355</v>
@@ -6398,7 +7454,7 @@
         <v>241</v>
       </c>
       <c r="J129" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K129" t="s">
         <v>297</v>
@@ -6410,7 +7466,7 @@
         <v>289</v>
       </c>
       <c r="N129" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6432,6 +7488,30 @@
       <c r="F130" t="s">
         <v>206</v>
       </c>
+      <c r="G130" t="s">
+        <v>206</v>
+      </c>
+      <c r="H130" t="s">
+        <v>206</v>
+      </c>
+      <c r="I130" t="s">
+        <v>206</v>
+      </c>
+      <c r="J130" t="s">
+        <v>206</v>
+      </c>
+      <c r="K130" t="s">
+        <v>206</v>
+      </c>
+      <c r="L130" t="s">
+        <v>206</v>
+      </c>
+      <c r="M130" t="s">
+        <v>206</v>
+      </c>
+      <c r="N130" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
@@ -6450,10 +7530,10 @@
         <v>0</v>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="H131" t="s">
         <v>370</v>
@@ -6462,7 +7542,7 @@
         <v>218</v>
       </c>
       <c r="J131" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K131" t="s">
         <v>431</v>
@@ -6474,7 +7554,7 @@
         <v>290</v>
       </c>
       <c r="N131" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6503,7 +7583,7 @@
         <v>368</v>
       </c>
       <c r="I132" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="J132" t="s">
         <v>369</v>
@@ -6512,13 +7592,13 @@
         <v>291</v>
       </c>
       <c r="L132" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M132" t="s">
         <v>290</v>
       </c>
       <c r="N132" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6541,10 +7621,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H133" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I133" t="s">
         <v>398</v>
@@ -6556,10 +7636,10 @@
         <v>292</v>
       </c>
       <c r="L133" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M133" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="N133" t="s">
         <v>369</v>
@@ -6585,22 +7665,22 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="H134" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I134" t="s">
         <v>293</v>
       </c>
       <c r="J134" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K134" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
       <c r="L134" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M134" t="s">
         <v>464</v>
@@ -6626,16 +7706,16 @@
         <v>0</v>
       </c>
       <c r="F135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
         <v>294</v>
       </c>
       <c r="H135" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I135" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="J135" t="s">
         <v>369</v>
@@ -6647,10 +7727,10 @@
         <v>368</v>
       </c>
       <c r="M135" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="N135" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6672,6 +7752,30 @@
       <c r="F136" t="s">
         <v>206</v>
       </c>
+      <c r="G136" t="s">
+        <v>206</v>
+      </c>
+      <c r="H136" t="s">
+        <v>206</v>
+      </c>
+      <c r="I136" t="s">
+        <v>206</v>
+      </c>
+      <c r="J136" t="s">
+        <v>206</v>
+      </c>
+      <c r="K136" t="s">
+        <v>206</v>
+      </c>
+      <c r="L136" t="s">
+        <v>206</v>
+      </c>
+      <c r="M136" t="s">
+        <v>206</v>
+      </c>
+      <c r="N136" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
@@ -6699,19 +7803,19 @@
         <v>368</v>
       </c>
       <c r="I137" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="J137" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K137" t="s">
         <v>295</v>
       </c>
       <c r="L137" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M137" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="N137" t="s">
         <v>369</v>
@@ -6746,19 +7850,19 @@
         <v>296</v>
       </c>
       <c r="J138" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K138" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L138" t="s">
         <v>369</v>
       </c>
       <c r="M138" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="N138" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6781,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H139" t="s">
         <v>369</v>
@@ -6796,13 +7900,13 @@
         <v>288</v>
       </c>
       <c r="L139" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M139" t="s">
         <v>297</v>
       </c>
       <c r="N139" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6825,22 +7929,22 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="H140" t="s">
         <v>370</v>
       </c>
       <c r="I140" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="J140" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K140" t="s">
         <v>298</v>
       </c>
       <c r="L140" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M140" t="s">
         <v>465</v>
@@ -6868,6 +7972,30 @@
       <c r="F141" t="s">
         <v>206</v>
       </c>
+      <c r="G141" t="s">
+        <v>206</v>
+      </c>
+      <c r="H141" t="s">
+        <v>206</v>
+      </c>
+      <c r="I141" t="s">
+        <v>206</v>
+      </c>
+      <c r="J141" t="s">
+        <v>206</v>
+      </c>
+      <c r="K141" t="s">
+        <v>206</v>
+      </c>
+      <c r="L141" t="s">
+        <v>206</v>
+      </c>
+      <c r="M141" t="s">
+        <v>206</v>
+      </c>
+      <c r="N141" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6892,13 +8020,13 @@
         <v>299</v>
       </c>
       <c r="H142" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I142" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="J142" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K142" t="s">
         <v>433</v>
@@ -6907,7 +8035,7 @@
         <v>368</v>
       </c>
       <c r="M142" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="N142" t="s">
         <v>369</v>
@@ -6948,13 +8076,13 @@
         <v>300</v>
       </c>
       <c r="L143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M143" t="s">
         <v>307</v>
       </c>
       <c r="N143" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6976,6 +8104,30 @@
       <c r="F144" t="s">
         <v>206</v>
       </c>
+      <c r="G144" t="s">
+        <v>206</v>
+      </c>
+      <c r="H144" t="s">
+        <v>206</v>
+      </c>
+      <c r="I144" t="s">
+        <v>206</v>
+      </c>
+      <c r="J144" t="s">
+        <v>206</v>
+      </c>
+      <c r="K144" t="s">
+        <v>206</v>
+      </c>
+      <c r="L144" t="s">
+        <v>206</v>
+      </c>
+      <c r="M144" t="s">
+        <v>206</v>
+      </c>
+      <c r="N144" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7000,16 +8152,16 @@
         <v>301</v>
       </c>
       <c r="H145" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I145" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="J145" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K145" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="L145" t="s">
         <v>369</v>
@@ -7038,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="s">
         <v>360</v>
@@ -7047,19 +8199,19 @@
         <v>368</v>
       </c>
       <c r="I146" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="J146" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K146" t="s">
         <v>302</v>
       </c>
       <c r="L146" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M146" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="N146" t="s">
         <v>369</v>
@@ -7085,19 +8237,19 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H147" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I147" t="s">
         <v>303</v>
       </c>
       <c r="J147" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K147" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L147" t="s">
         <v>369</v>
@@ -7126,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
         <v>361</v>
@@ -7138,16 +8290,16 @@
         <v>304</v>
       </c>
       <c r="J148" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K148" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="L148" t="s">
         <v>370</v>
       </c>
       <c r="M148" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="N148" t="s">
         <v>369</v>
@@ -7173,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="H149" t="s">
         <v>369</v>
@@ -7185,16 +8337,16 @@
         <v>368</v>
       </c>
       <c r="K149" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="L149" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M149" t="s">
         <v>305</v>
       </c>
       <c r="N149" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7216,6 +8368,30 @@
       <c r="F150" t="s">
         <v>206</v>
       </c>
+      <c r="G150" t="s">
+        <v>206</v>
+      </c>
+      <c r="H150" t="s">
+        <v>206</v>
+      </c>
+      <c r="I150" t="s">
+        <v>206</v>
+      </c>
+      <c r="J150" t="s">
+        <v>206</v>
+      </c>
+      <c r="K150" t="s">
+        <v>206</v>
+      </c>
+      <c r="L150" t="s">
+        <v>206</v>
+      </c>
+      <c r="M150" t="s">
+        <v>206</v>
+      </c>
+      <c r="N150" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7236,6 +8412,30 @@
       <c r="F151" t="s">
         <v>206</v>
       </c>
+      <c r="G151" t="s">
+        <v>206</v>
+      </c>
+      <c r="H151" t="s">
+        <v>206</v>
+      </c>
+      <c r="I151" t="s">
+        <v>206</v>
+      </c>
+      <c r="J151" t="s">
+        <v>206</v>
+      </c>
+      <c r="K151" t="s">
+        <v>206</v>
+      </c>
+      <c r="L151" t="s">
+        <v>206</v>
+      </c>
+      <c r="M151" t="s">
+        <v>206</v>
+      </c>
+      <c r="N151" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7257,16 +8457,16 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="H152" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I152" t="s">
         <v>306</v>
       </c>
       <c r="J152" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K152" t="s">
         <v>434</v>
@@ -7275,7 +8475,7 @@
         <v>368</v>
       </c>
       <c r="M152" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="N152" t="s">
         <v>369</v>
@@ -7300,6 +8500,30 @@
       <c r="F153" t="s">
         <v>206</v>
       </c>
+      <c r="G153" t="s">
+        <v>206</v>
+      </c>
+      <c r="H153" t="s">
+        <v>206</v>
+      </c>
+      <c r="I153" t="s">
+        <v>206</v>
+      </c>
+      <c r="J153" t="s">
+        <v>206</v>
+      </c>
+      <c r="K153" t="s">
+        <v>206</v>
+      </c>
+      <c r="L153" t="s">
+        <v>206</v>
+      </c>
+      <c r="M153" t="s">
+        <v>206</v>
+      </c>
+      <c r="N153" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7320,6 +8544,30 @@
       <c r="F154" t="s">
         <v>206</v>
       </c>
+      <c r="G154" t="s">
+        <v>206</v>
+      </c>
+      <c r="H154" t="s">
+        <v>206</v>
+      </c>
+      <c r="I154" t="s">
+        <v>206</v>
+      </c>
+      <c r="J154" t="s">
+        <v>206</v>
+      </c>
+      <c r="K154" t="s">
+        <v>206</v>
+      </c>
+      <c r="L154" t="s">
+        <v>206</v>
+      </c>
+      <c r="M154" t="s">
+        <v>206</v>
+      </c>
+      <c r="N154" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7338,19 +8586,19 @@
         <v>0</v>
       </c>
       <c r="F155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="s">
         <v>307</v>
       </c>
       <c r="H155" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I155" t="s">
         <v>260</v>
       </c>
       <c r="J155" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K155" t="s">
         <v>435</v>
@@ -7359,10 +8607,10 @@
         <v>368</v>
       </c>
       <c r="M155" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="N155" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7385,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H156" t="s">
         <v>369</v>
@@ -7400,13 +8648,13 @@
         <v>308</v>
       </c>
       <c r="L156" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N156" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7432,13 +8680,13 @@
         <v>309</v>
       </c>
       <c r="H157" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I157" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J157" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K157" t="s">
         <v>436</v>
@@ -7447,7 +8695,7 @@
         <v>368</v>
       </c>
       <c r="M157" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="N157" t="s">
         <v>369</v>
@@ -7473,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="H158" t="s">
         <v>369</v>
@@ -7488,13 +8736,13 @@
         <v>310</v>
       </c>
       <c r="L158" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M158" t="s">
         <v>228</v>
       </c>
       <c r="N158" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7514,25 +8762,25 @@
         <v>0</v>
       </c>
       <c r="F159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="s">
         <v>311</v>
       </c>
       <c r="H159" t="s">
+        <v>373</v>
+      </c>
+      <c r="I159" t="s">
+        <v>280</v>
+      </c>
+      <c r="J159" t="s">
         <v>371</v>
       </c>
-      <c r="I159" t="s">
-        <v>331</v>
-      </c>
-      <c r="J159" t="s">
-        <v>372</v>
-      </c>
       <c r="K159" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="L159" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M159" t="s">
         <v>468</v>
@@ -7560,6 +8808,30 @@
       <c r="F160" t="s">
         <v>206</v>
       </c>
+      <c r="G160" t="s">
+        <v>206</v>
+      </c>
+      <c r="H160" t="s">
+        <v>206</v>
+      </c>
+      <c r="I160" t="s">
+        <v>206</v>
+      </c>
+      <c r="J160" t="s">
+        <v>206</v>
+      </c>
+      <c r="K160" t="s">
+        <v>206</v>
+      </c>
+      <c r="L160" t="s">
+        <v>206</v>
+      </c>
+      <c r="M160" t="s">
+        <v>206</v>
+      </c>
+      <c r="N160" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7580,6 +8852,30 @@
       <c r="F161" t="s">
         <v>206</v>
       </c>
+      <c r="G161" t="s">
+        <v>206</v>
+      </c>
+      <c r="H161" t="s">
+        <v>206</v>
+      </c>
+      <c r="I161" t="s">
+        <v>206</v>
+      </c>
+      <c r="J161" t="s">
+        <v>206</v>
+      </c>
+      <c r="K161" t="s">
+        <v>206</v>
+      </c>
+      <c r="L161" t="s">
+        <v>206</v>
+      </c>
+      <c r="M161" t="s">
+        <v>206</v>
+      </c>
+      <c r="N161" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7601,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="H162" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I162" t="s">
         <v>403</v>
@@ -7616,10 +8912,10 @@
         <v>312</v>
       </c>
       <c r="L162" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M162" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="N162" t="s">
         <v>369</v>
@@ -7645,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="H163" t="s">
         <v>369</v>
@@ -7654,7 +8950,7 @@
         <v>313</v>
       </c>
       <c r="J163" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K163" t="s">
         <v>437</v>
@@ -7663,10 +8959,10 @@
         <v>368</v>
       </c>
       <c r="M163" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="N163" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -7692,13 +8988,13 @@
         <v>310</v>
       </c>
       <c r="H164" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I164" t="s">
         <v>314</v>
       </c>
       <c r="J164" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K164" t="s">
         <v>242</v>
@@ -7732,6 +9028,30 @@
       <c r="F165" t="s">
         <v>206</v>
       </c>
+      <c r="G165" t="s">
+        <v>206</v>
+      </c>
+      <c r="H165" t="s">
+        <v>206</v>
+      </c>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+      <c r="K165" t="s">
+        <v>206</v>
+      </c>
+      <c r="L165" t="s">
+        <v>206</v>
+      </c>
+      <c r="M165" t="s">
+        <v>206</v>
+      </c>
+      <c r="N165" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7753,16 +9073,16 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H166" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I166" t="s">
         <v>315</v>
       </c>
       <c r="J166" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K166" t="s">
         <v>438</v>
@@ -7771,7 +9091,7 @@
         <v>368</v>
       </c>
       <c r="M166" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="N166" t="s">
         <v>369</v>
@@ -7797,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="H167" t="s">
         <v>369</v>
@@ -7806,7 +9126,7 @@
         <v>280</v>
       </c>
       <c r="J167" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K167" t="s">
         <v>439</v>
@@ -7818,7 +9138,7 @@
         <v>316</v>
       </c>
       <c r="N167" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7838,10 +9158,10 @@
         <v>0</v>
       </c>
       <c r="F168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="H168" t="s">
         <v>370</v>
@@ -7853,7 +9173,7 @@
         <v>368</v>
       </c>
       <c r="K168" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="L168" t="s">
         <v>369</v>
@@ -7862,7 +9182,7 @@
         <v>317</v>
       </c>
       <c r="N168" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -7894,13 +9214,13 @@
         <v>318</v>
       </c>
       <c r="J169" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K169" t="s">
         <v>322</v>
       </c>
       <c r="L169" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M169" t="s">
         <v>470</v>
@@ -7928,6 +9248,30 @@
       <c r="F170" t="s">
         <v>206</v>
       </c>
+      <c r="G170" t="s">
+        <v>206</v>
+      </c>
+      <c r="H170" t="s">
+        <v>206</v>
+      </c>
+      <c r="I170" t="s">
+        <v>206</v>
+      </c>
+      <c r="J170" t="s">
+        <v>206</v>
+      </c>
+      <c r="K170" t="s">
+        <v>206</v>
+      </c>
+      <c r="L170" t="s">
+        <v>206</v>
+      </c>
+      <c r="M170" t="s">
+        <v>206</v>
+      </c>
+      <c r="N170" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7958,13 +9302,13 @@
         <v>319</v>
       </c>
       <c r="J171" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K171" t="s">
         <v>273</v>
       </c>
       <c r="L171" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M171" t="s">
         <v>471</v>
@@ -7990,16 +9334,16 @@
         <v>0</v>
       </c>
       <c r="F172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H172" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I172" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="J172" t="s">
         <v>369</v>
@@ -8014,7 +9358,7 @@
         <v>320</v>
       </c>
       <c r="N172" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8040,7 +9384,7 @@
         <v>321</v>
       </c>
       <c r="H173" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I173" t="s">
         <v>405</v>
@@ -8049,16 +9393,16 @@
         <v>368</v>
       </c>
       <c r="K173" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L173" t="s">
         <v>369</v>
       </c>
       <c r="M173" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="N173" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8080,6 +9424,30 @@
       <c r="F174" t="s">
         <v>206</v>
       </c>
+      <c r="G174" t="s">
+        <v>206</v>
+      </c>
+      <c r="H174" t="s">
+        <v>206</v>
+      </c>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+      <c r="J174" t="s">
+        <v>206</v>
+      </c>
+      <c r="K174" t="s">
+        <v>206</v>
+      </c>
+      <c r="L174" t="s">
+        <v>206</v>
+      </c>
+      <c r="M174" t="s">
+        <v>206</v>
+      </c>
+      <c r="N174" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8107,7 +9475,7 @@
         <v>368</v>
       </c>
       <c r="I175" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="J175" t="s">
         <v>369</v>
@@ -8116,13 +9484,13 @@
         <v>322</v>
       </c>
       <c r="L175" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M175" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="N175" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8144,6 +9512,30 @@
       <c r="F176" t="s">
         <v>206</v>
       </c>
+      <c r="G176" t="s">
+        <v>206</v>
+      </c>
+      <c r="H176" t="s">
+        <v>206</v>
+      </c>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+      <c r="J176" t="s">
+        <v>206</v>
+      </c>
+      <c r="K176" t="s">
+        <v>206</v>
+      </c>
+      <c r="L176" t="s">
+        <v>206</v>
+      </c>
+      <c r="M176" t="s">
+        <v>206</v>
+      </c>
+      <c r="N176" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8164,6 +9556,30 @@
       <c r="F177" t="s">
         <v>206</v>
       </c>
+      <c r="G177" t="s">
+        <v>206</v>
+      </c>
+      <c r="H177" t="s">
+        <v>206</v>
+      </c>
+      <c r="I177" t="s">
+        <v>206</v>
+      </c>
+      <c r="J177" t="s">
+        <v>206</v>
+      </c>
+      <c r="K177" t="s">
+        <v>206</v>
+      </c>
+      <c r="L177" t="s">
+        <v>206</v>
+      </c>
+      <c r="M177" t="s">
+        <v>206</v>
+      </c>
+      <c r="N177" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8184,6 +9600,30 @@
       <c r="F178" t="s">
         <v>206</v>
       </c>
+      <c r="G178" t="s">
+        <v>206</v>
+      </c>
+      <c r="H178" t="s">
+        <v>206</v>
+      </c>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+      <c r="J178" t="s">
+        <v>206</v>
+      </c>
+      <c r="K178" t="s">
+        <v>206</v>
+      </c>
+      <c r="L178" t="s">
+        <v>206</v>
+      </c>
+      <c r="M178" t="s">
+        <v>206</v>
+      </c>
+      <c r="N178" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8211,22 +9651,22 @@
         <v>368</v>
       </c>
       <c r="I179" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="J179" t="s">
         <v>369</v>
       </c>
       <c r="K179" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="L179" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M179" t="s">
         <v>323</v>
       </c>
       <c r="N179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8252,7 +9692,7 @@
         <v>324</v>
       </c>
       <c r="H180" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I180" t="s">
         <v>287</v>
@@ -8270,7 +9710,7 @@
         <v>207</v>
       </c>
       <c r="N180" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8292,6 +9732,30 @@
       <c r="F181" t="s">
         <v>206</v>
       </c>
+      <c r="G181" t="s">
+        <v>206</v>
+      </c>
+      <c r="H181" t="s">
+        <v>206</v>
+      </c>
+      <c r="I181" t="s">
+        <v>206</v>
+      </c>
+      <c r="J181" t="s">
+        <v>206</v>
+      </c>
+      <c r="K181" t="s">
+        <v>206</v>
+      </c>
+      <c r="L181" t="s">
+        <v>206</v>
+      </c>
+      <c r="M181" t="s">
+        <v>206</v>
+      </c>
+      <c r="N181" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8313,16 +9777,16 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="H182" t="s">
         <v>369</v>
       </c>
       <c r="I182" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="J182" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K182" t="s">
         <v>442</v>
@@ -8334,7 +9798,7 @@
         <v>325</v>
       </c>
       <c r="N182" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -8354,25 +9818,25 @@
         <v>0</v>
       </c>
       <c r="F183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="H183" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I183" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="J183" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K183" t="s">
         <v>326</v>
       </c>
       <c r="L183" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M183" t="s">
         <v>472</v>
@@ -8407,13 +9871,13 @@
         <v>368</v>
       </c>
       <c r="I184" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="J184" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K184" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="L184" t="s">
         <v>370</v>
@@ -8422,7 +9886,7 @@
         <v>327</v>
       </c>
       <c r="N184" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -8444,6 +9908,30 @@
       <c r="F185" t="s">
         <v>206</v>
       </c>
+      <c r="G185" t="s">
+        <v>206</v>
+      </c>
+      <c r="H185" t="s">
+        <v>206</v>
+      </c>
+      <c r="I185" t="s">
+        <v>206</v>
+      </c>
+      <c r="J185" t="s">
+        <v>206</v>
+      </c>
+      <c r="K185" t="s">
+        <v>206</v>
+      </c>
+      <c r="L185" t="s">
+        <v>206</v>
+      </c>
+      <c r="M185" t="s">
+        <v>206</v>
+      </c>
+      <c r="N185" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8464,6 +9952,30 @@
       <c r="F186" t="s">
         <v>206</v>
       </c>
+      <c r="G186" t="s">
+        <v>206</v>
+      </c>
+      <c r="H186" t="s">
+        <v>206</v>
+      </c>
+      <c r="I186" t="s">
+        <v>206</v>
+      </c>
+      <c r="J186" t="s">
+        <v>206</v>
+      </c>
+      <c r="K186" t="s">
+        <v>206</v>
+      </c>
+      <c r="L186" t="s">
+        <v>206</v>
+      </c>
+      <c r="M186" t="s">
+        <v>206</v>
+      </c>
+      <c r="N186" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8488,13 +10000,13 @@
         <v>328</v>
       </c>
       <c r="H187" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I187" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="J187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K187" t="s">
         <v>443</v>
@@ -8503,7 +10015,7 @@
         <v>368</v>
       </c>
       <c r="M187" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N187" t="s">
         <v>369</v>
@@ -8529,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="H188" t="s">
         <v>369</v>
@@ -8544,13 +10056,13 @@
         <v>329</v>
       </c>
       <c r="L188" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M188" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="N188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -8579,7 +10091,7 @@
         <v>368</v>
       </c>
       <c r="I189" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="J189" t="s">
         <v>369</v>
@@ -8588,13 +10100,13 @@
         <v>270</v>
       </c>
       <c r="L189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M189" t="s">
         <v>330</v>
       </c>
       <c r="N189" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -8616,6 +10128,30 @@
       <c r="F190" t="s">
         <v>206</v>
       </c>
+      <c r="G190" t="s">
+        <v>206</v>
+      </c>
+      <c r="H190" t="s">
+        <v>206</v>
+      </c>
+      <c r="I190" t="s">
+        <v>206</v>
+      </c>
+      <c r="J190" t="s">
+        <v>206</v>
+      </c>
+      <c r="K190" t="s">
+        <v>206</v>
+      </c>
+      <c r="L190" t="s">
+        <v>206</v>
+      </c>
+      <c r="M190" t="s">
+        <v>206</v>
+      </c>
+      <c r="N190" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8634,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
         <v>366</v>
@@ -8646,7 +10182,7 @@
         <v>331</v>
       </c>
       <c r="J191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K191" t="s">
         <v>228</v>
@@ -8655,10 +10191,10 @@
         <v>369</v>
       </c>
       <c r="M191" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="N191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -8684,7 +10220,7 @@
         <v>220</v>
       </c>
       <c r="H192" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I192" t="s">
         <v>407</v>
@@ -8696,10 +10232,10 @@
         <v>332</v>
       </c>
       <c r="L192" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M192" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="N192" t="s">
         <v>369</v>
@@ -8722,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="s">
         <v>367</v>
@@ -8734,19 +10270,19 @@
         <v>333</v>
       </c>
       <c r="J193" t="s">
+        <v>373</v>
+      </c>
+      <c r="K193" t="s">
+        <v>300</v>
+      </c>
+      <c r="L193" t="s">
+        <v>374</v>
+      </c>
+      <c r="M193" t="s">
+        <v>216</v>
+      </c>
+      <c r="N193" t="s">
         <v>371</v>
-      </c>
-      <c r="K193" t="s">
-        <v>307</v>
-      </c>
-      <c r="L193" t="s">
-        <v>369</v>
-      </c>
-      <c r="M193" t="s">
-        <v>210</v>
-      </c>
-      <c r="N193" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/16_retrieval_2.xlsx
+++ b/sequences/16_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
     <t>zielen</t>
   </si>
   <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
     <t>drehen</t>
   </si>
   <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>socken</t>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>schmecken</t>
   </si>
   <si>
     <t>hauen</t>
   </si>
   <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>füllen</t>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>scheitern</t>
   </si>
   <si>
     <t>ärgern</t>
   </si>
   <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>loben</t>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>schulden</t>
   </si>
   <si>
     <t>face/face000.jpg</t>
